--- a/Assets/StreamingAssets/WrongChoice3.xlsx
+++ b/Assets/StreamingAssets/WrongChoice3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9E8025-7DB2-2941-B87C-E0740D4D4A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BE5C61-EC02-2046-A5FD-136043343D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13520" yWindow="1060" windowWidth="28800" windowHeight="15880" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="15880" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,15 +153,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If the note had been written under normal circumstances, what would it typically look like?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Now compare that to the current note.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Don’t you think there’s something a bit strange about it?</t>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(If the note had been written under normal circumstances, what would it typically look like?)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Now compare that to the current note.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Don’t you think there’s something a bit strange about it?)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="34">
+    <row r="2" spans="1:16" ht="51">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -655,7 +655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17">
+    <row r="3" spans="1:16" ht="34">
       <c r="A3" t="s">
         <v>20</v>
       </c>
